--- a/SuppXLS/Trades/ScenTrade__Trade_Links.xlsx
+++ b/SuppXLS/Trades/ScenTrade__Trade_Links.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\TIMES_IPOY\SuppXLS\Trades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://institutesustainableenergy.sharepoint.com/sites/TIMES_Veda/Shared Documents/General/Demo model/SuppXLS/Trades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0499FD-0425-4F3A-A816-E9F5792D8089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{EB0499FD-0425-4F3A-A816-E9F5792D8089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2B4C150-215D-419D-86FE-AC54D91CC88A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18816" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="3264" windowWidth="34320" windowHeight="15288" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uni" sheetId="4" r:id="rId1"/>
@@ -32,21 +32,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
-  <si>
-    <t>~TradeLinks</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>\I:</t>
   </si>
   <si>
-    <t>ELC_HV</t>
-  </si>
-  <si>
     <t>IMPORTERS</t>
-  </si>
-  <si>
-    <t>EKSPORTERS</t>
   </si>
   <si>
     <t>EXPORTERS</t>
@@ -67,17 +58,38 @@
     <t>UNILATERAL TRADE - 1 means trade from region in row to region in column</t>
   </si>
   <si>
-    <t>ELC</t>
+    <t>REG_C exports NAT_GAS to regions REG_A &amp; REG_B</t>
   </si>
   <si>
-    <t>Bilateral trade</t>
+    <t>INACTIVE~TradeLinks</t>
+  </si>
+  <si>
+    <t>Trade processess are created automatically by VEDA, their names can be found in Items View module</t>
+  </si>
+  <si>
+    <t>BILATERAL TRADE - 1 means trade from region in row to region in column</t>
+  </si>
+  <si>
+    <t>The idea here is to put trade links in both ways</t>
+  </si>
+  <si>
+    <t>ELEC_HV</t>
+  </si>
+  <si>
+    <t>&lt;- REG_A exports ELEC_HV to REG_B</t>
+  </si>
+  <si>
+    <t>&lt;- REB_B export ELEC_HV to REG_A</t>
+  </si>
+  <si>
+    <t>Regions REG_A and REG_B export ELEC_HV to REG_B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,14 +182,6 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -206,19 +210,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF5B"/>
+        <fgColor rgb="FFCACACA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC00"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCACACA"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,17 +346,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -381,6 +377,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hiperłącze 2 4 2 3" xfId="4" xr:uid="{8E914D80-5CDB-4576-9AE9-7186FDC3C5B4}"/>
@@ -984,13 +999,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>184814</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1474,9 +1489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:LE43"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1485,7 +1498,7 @@
     <col min="4" max="4" width="19.88671875" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" customWidth="1"/>
     <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="54" width="6.5546875" bestFit="1" customWidth="1"/>
@@ -1493,711 +1506,715 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:317" ht="18">
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:317">
+      <c r="D2" s="18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="2:317" ht="18">
-      <c r="E3" s="11" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="2:317" ht="18" customHeight="1">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+    </row>
+    <row r="4" spans="2:317" ht="18">
+      <c r="E4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="6" spans="2:317">
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:317" ht="15.75" customHeight="1">
+      <c r="B7" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="5" spans="2:317">
-      <c r="D5" s="6" t="s">
+      <c r="F7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="BY7" s="3"/>
+      <c r="BZ7" s="3"/>
+      <c r="CA7" s="3"/>
+      <c r="CB7" s="3"/>
+      <c r="CC7" s="3"/>
+      <c r="CD7" s="3"/>
+      <c r="CE7" s="3"/>
+      <c r="CF7" s="3"/>
+      <c r="CG7" s="3"/>
+      <c r="CH7" s="3"/>
+      <c r="CI7" s="3"/>
+      <c r="CJ7" s="3"/>
+      <c r="CK7" s="3"/>
+      <c r="CL7" s="3"/>
+      <c r="CM7" s="3"/>
+      <c r="CN7" s="3"/>
+      <c r="CO7" s="3"/>
+      <c r="CP7" s="3"/>
+      <c r="CQ7" s="3"/>
+      <c r="CR7" s="3"/>
+      <c r="CS7" s="3"/>
+      <c r="CT7" s="3"/>
+      <c r="CU7" s="3"/>
+      <c r="CV7" s="3"/>
+      <c r="CW7" s="3"/>
+      <c r="CX7" s="3"/>
+      <c r="CY7" s="3"/>
+      <c r="CZ7" s="3"/>
+      <c r="DA7" s="3"/>
+      <c r="DB7" s="3"/>
+      <c r="DC7" s="3"/>
+      <c r="DD7" s="3"/>
+      <c r="DE7" s="3"/>
+      <c r="DF7" s="3"/>
+      <c r="DG7" s="3"/>
+      <c r="DH7" s="3"/>
+      <c r="DI7" s="3"/>
+      <c r="DJ7" s="3"/>
+      <c r="DK7" s="3"/>
+      <c r="DL7" s="3"/>
+      <c r="DM7" s="3"/>
+      <c r="DN7" s="3"/>
+      <c r="DO7" s="3"/>
+      <c r="DP7" s="3"/>
+      <c r="DQ7" s="3"/>
+      <c r="DR7" s="3"/>
+      <c r="DS7" s="3"/>
+      <c r="DT7" s="3"/>
+      <c r="DU7" s="3"/>
+      <c r="DV7" s="3"/>
+      <c r="DW7" s="3"/>
+      <c r="DX7" s="3"/>
+      <c r="DY7" s="3"/>
+      <c r="DZ7" s="3"/>
+      <c r="EA7" s="3"/>
+      <c r="EB7" s="3"/>
+      <c r="EC7" s="3"/>
+      <c r="ED7" s="3"/>
+      <c r="EE7" s="3"/>
+      <c r="EF7" s="3"/>
+      <c r="EG7" s="3"/>
+      <c r="EH7" s="3"/>
+      <c r="EI7" s="3"/>
+      <c r="EJ7" s="3"/>
+      <c r="EK7" s="3"/>
+      <c r="EL7" s="3"/>
+      <c r="EM7" s="3"/>
+      <c r="EN7" s="3"/>
+      <c r="EO7" s="3"/>
+      <c r="EP7" s="3"/>
+      <c r="EQ7" s="3"/>
+      <c r="ER7" s="3"/>
+      <c r="ES7" s="3"/>
+      <c r="ET7" s="3"/>
+      <c r="EU7" s="3"/>
+      <c r="EV7" s="3"/>
+      <c r="EW7" s="3"/>
+      <c r="EX7" s="3"/>
+      <c r="EY7" s="3"/>
+      <c r="EZ7" s="3"/>
+      <c r="FA7" s="3"/>
+      <c r="FB7" s="3"/>
+      <c r="FC7" s="3"/>
+      <c r="FD7" s="3"/>
+      <c r="FE7" s="3"/>
+      <c r="FF7" s="3"/>
+      <c r="FG7" s="3"/>
+      <c r="FH7" s="3"/>
+      <c r="FI7" s="3"/>
+      <c r="FJ7" s="3"/>
+      <c r="FK7" s="3"/>
+      <c r="FL7" s="3"/>
+      <c r="FM7" s="3"/>
+      <c r="FN7" s="3"/>
+      <c r="FO7" s="3"/>
+      <c r="FP7" s="3"/>
+      <c r="FQ7" s="3"/>
+      <c r="FR7" s="3"/>
+      <c r="FS7" s="3"/>
+      <c r="FT7" s="3"/>
+      <c r="FU7" s="3"/>
+      <c r="FV7" s="3"/>
+      <c r="FW7" s="3"/>
+      <c r="FX7" s="3"/>
+      <c r="FY7" s="3"/>
+      <c r="FZ7" s="3"/>
+      <c r="GA7" s="3"/>
+      <c r="GB7" s="3"/>
+      <c r="GC7" s="3"/>
+      <c r="GD7" s="3"/>
+      <c r="GE7" s="3"/>
+      <c r="GF7" s="3"/>
+      <c r="GG7" s="3"/>
+      <c r="GH7" s="3"/>
+      <c r="GI7" s="3"/>
+      <c r="GJ7" s="3"/>
+      <c r="GK7" s="3"/>
+      <c r="GL7" s="3"/>
+      <c r="GM7" s="3"/>
+      <c r="GN7" s="3"/>
+      <c r="GO7" s="3"/>
+      <c r="GP7" s="3"/>
+      <c r="GQ7" s="3"/>
+      <c r="GR7" s="3"/>
+      <c r="GS7" s="3"/>
+      <c r="GT7" s="3"/>
+      <c r="GU7" s="3"/>
+      <c r="GV7" s="3"/>
+      <c r="GW7" s="3"/>
+      <c r="GX7" s="3"/>
+      <c r="GY7" s="3"/>
+      <c r="GZ7" s="3"/>
+      <c r="HA7" s="3"/>
+      <c r="HB7" s="3"/>
+      <c r="HC7" s="3"/>
+      <c r="HD7" s="3"/>
+      <c r="HE7" s="3"/>
+      <c r="HF7" s="3"/>
+      <c r="HG7" s="3"/>
+      <c r="HH7" s="3"/>
+      <c r="HI7" s="3"/>
+      <c r="HJ7" s="3"/>
+      <c r="HK7" s="3"/>
+      <c r="HL7" s="3"/>
+      <c r="HM7" s="3"/>
+      <c r="HN7" s="3"/>
+      <c r="HO7" s="3"/>
+      <c r="HP7" s="3"/>
+      <c r="HQ7" s="3"/>
+      <c r="HR7" s="3"/>
+      <c r="HS7" s="3"/>
+      <c r="HT7" s="3"/>
+      <c r="HU7" s="3"/>
+      <c r="HV7" s="3"/>
+      <c r="HW7" s="3"/>
+      <c r="HX7" s="3"/>
+      <c r="HY7" s="3"/>
+      <c r="HZ7" s="3"/>
+      <c r="IA7" s="3"/>
+      <c r="IB7" s="3"/>
+      <c r="IC7" s="3"/>
+      <c r="ID7" s="3"/>
+      <c r="IE7" s="3"/>
+      <c r="IF7" s="3"/>
+      <c r="IG7" s="3"/>
+      <c r="IH7" s="3"/>
+      <c r="II7" s="3"/>
+      <c r="IJ7" s="3"/>
+      <c r="IK7" s="3"/>
+      <c r="IL7" s="3"/>
+      <c r="IM7" s="3"/>
+      <c r="IN7" s="3"/>
+      <c r="IO7" s="3"/>
+      <c r="IP7" s="3"/>
+      <c r="IQ7" s="3"/>
+      <c r="IR7" s="3"/>
+      <c r="IS7" s="3"/>
+      <c r="IT7" s="3"/>
+      <c r="IU7" s="3"/>
+      <c r="IV7" s="3"/>
+      <c r="IW7" s="3"/>
+      <c r="IX7" s="3"/>
+      <c r="IY7" s="3"/>
+      <c r="IZ7" s="3"/>
+      <c r="JA7" s="3"/>
+      <c r="JB7" s="3"/>
+      <c r="JC7" s="3"/>
+      <c r="JD7" s="3"/>
+      <c r="JE7" s="3"/>
+      <c r="JF7" s="3"/>
+      <c r="JG7" s="3"/>
+      <c r="JH7" s="3"/>
+      <c r="JI7" s="3"/>
+      <c r="JJ7" s="3"/>
+      <c r="JK7" s="3"/>
+      <c r="JL7" s="3"/>
+      <c r="JM7" s="3"/>
+      <c r="JN7" s="3"/>
+      <c r="JO7" s="3"/>
+      <c r="JP7" s="3"/>
+      <c r="JQ7" s="3"/>
+      <c r="JR7" s="3"/>
+      <c r="JS7" s="3"/>
+      <c r="JT7" s="3"/>
+      <c r="JU7" s="3"/>
+      <c r="JV7" s="3"/>
+      <c r="JW7" s="3"/>
+      <c r="JX7" s="3"/>
+      <c r="JY7" s="3"/>
+      <c r="JZ7" s="3"/>
+      <c r="KA7" s="3"/>
+      <c r="KB7" s="3"/>
+      <c r="KC7" s="3"/>
+      <c r="KD7" s="3"/>
+      <c r="KE7" s="3"/>
+      <c r="KF7" s="3"/>
+      <c r="KG7" s="3"/>
+      <c r="KH7" s="3"/>
+      <c r="KI7" s="3"/>
+      <c r="KJ7" s="3"/>
+      <c r="KK7" s="3"/>
+      <c r="KL7" s="3"/>
+      <c r="KM7" s="3"/>
+      <c r="KN7" s="3"/>
+      <c r="KO7" s="3"/>
+      <c r="KP7" s="3"/>
+      <c r="KQ7" s="3"/>
+      <c r="KR7" s="3"/>
+      <c r="KS7" s="3"/>
+      <c r="KT7" s="3"/>
+      <c r="KU7" s="3"/>
+      <c r="KV7" s="3"/>
+      <c r="KW7" s="3"/>
+      <c r="KX7" s="3"/>
+      <c r="KY7" s="3"/>
+      <c r="KZ7" s="3"/>
+      <c r="LA7" s="3"/>
+      <c r="LB7" s="3"/>
+      <c r="LC7" s="3"/>
+      <c r="LD7" s="3"/>
+      <c r="LE7" s="3"/>
+    </row>
+    <row r="8" spans="2:317" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B8" s="20"/>
+      <c r="D8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="BY8" s="4"/>
+      <c r="BZ8" s="4"/>
+      <c r="CA8" s="4"/>
+      <c r="CB8" s="4"/>
+      <c r="CC8" s="4"/>
+      <c r="CD8" s="4"/>
+      <c r="CE8" s="4"/>
+      <c r="CF8" s="4"/>
+      <c r="CG8" s="4"/>
+      <c r="CH8" s="4"/>
+      <c r="CI8" s="4"/>
+      <c r="CJ8" s="4"/>
+      <c r="CK8" s="4"/>
+      <c r="CL8" s="4"/>
+      <c r="CM8" s="4"/>
+      <c r="CN8" s="4"/>
+      <c r="CO8" s="4"/>
+      <c r="CP8" s="4"/>
+      <c r="CQ8" s="4"/>
+      <c r="CR8" s="4"/>
+      <c r="CS8" s="4"/>
+      <c r="CT8" s="4"/>
+      <c r="CU8" s="4"/>
+      <c r="CV8" s="4"/>
+      <c r="CW8" s="4"/>
+      <c r="CX8" s="4"/>
+      <c r="CY8" s="4"/>
+      <c r="CZ8" s="4"/>
+      <c r="DA8" s="4"/>
+      <c r="DB8" s="4"/>
+      <c r="DC8" s="4"/>
+      <c r="DD8" s="4"/>
+      <c r="DE8" s="4"/>
+      <c r="DF8" s="4"/>
+      <c r="DG8" s="4"/>
+      <c r="DH8" s="4"/>
+      <c r="DI8" s="4"/>
+      <c r="DJ8" s="4"/>
+      <c r="DK8" s="4"/>
+      <c r="DL8" s="4"/>
+      <c r="DM8" s="4"/>
+      <c r="DN8" s="4"/>
+      <c r="DO8" s="4"/>
+      <c r="DP8" s="4"/>
+      <c r="DQ8" s="4"/>
+      <c r="DR8" s="4"/>
+      <c r="DS8" s="4"/>
+      <c r="DT8" s="4"/>
+      <c r="DU8" s="4"/>
+      <c r="DV8" s="4"/>
+      <c r="DW8" s="4"/>
+      <c r="DX8" s="4"/>
+      <c r="DY8" s="4"/>
+      <c r="DZ8" s="4"/>
+      <c r="EA8" s="4"/>
+      <c r="EB8" s="4"/>
+      <c r="EC8" s="4"/>
+      <c r="ED8" s="4"/>
+      <c r="EE8" s="4"/>
+      <c r="EF8" s="4"/>
+      <c r="EG8" s="4"/>
+      <c r="EH8" s="4"/>
+      <c r="EI8" s="4"/>
+      <c r="EJ8" s="4"/>
+      <c r="EK8" s="4"/>
+      <c r="EL8" s="4"/>
+      <c r="EM8" s="4"/>
+      <c r="EN8" s="4"/>
+      <c r="EO8" s="4"/>
+      <c r="EP8" s="4"/>
+      <c r="EQ8" s="4"/>
+      <c r="ER8" s="4"/>
+      <c r="ES8" s="4"/>
+      <c r="ET8" s="4"/>
+      <c r="EU8" s="4"/>
+      <c r="EV8" s="4"/>
+      <c r="EW8" s="4"/>
+      <c r="EX8" s="4"/>
+      <c r="EY8" s="4"/>
+      <c r="EZ8" s="4"/>
+      <c r="FA8" s="4"/>
+      <c r="FB8" s="4"/>
+      <c r="FC8" s="4"/>
+      <c r="FD8" s="4"/>
+      <c r="FE8" s="4"/>
+      <c r="FF8" s="4"/>
+      <c r="FG8" s="4"/>
+      <c r="FH8" s="4"/>
+      <c r="FI8" s="4"/>
+      <c r="FJ8" s="4"/>
+      <c r="FK8" s="4"/>
+      <c r="FL8" s="4"/>
+      <c r="FM8" s="4"/>
+      <c r="FN8" s="4"/>
+      <c r="FO8" s="4"/>
+      <c r="FP8" s="4"/>
+      <c r="FQ8" s="4"/>
+      <c r="FR8" s="4"/>
+      <c r="FS8" s="4"/>
+      <c r="FT8" s="4"/>
+      <c r="FU8" s="4"/>
+      <c r="FV8" s="4"/>
+      <c r="FW8" s="4"/>
+      <c r="FX8" s="4"/>
+      <c r="FY8" s="4"/>
+      <c r="FZ8" s="4"/>
+      <c r="GA8" s="4"/>
+      <c r="GB8" s="4"/>
+      <c r="GC8" s="4"/>
+      <c r="GD8" s="4"/>
+      <c r="GE8" s="4"/>
+      <c r="GF8" s="4"/>
+      <c r="GG8" s="4"/>
+      <c r="GH8" s="4"/>
+      <c r="GI8" s="4"/>
+      <c r="GJ8" s="4"/>
+      <c r="GK8" s="4"/>
+      <c r="GL8" s="4"/>
+      <c r="GM8" s="4"/>
+      <c r="GN8" s="4"/>
+      <c r="GO8" s="4"/>
+      <c r="GP8" s="4"/>
+      <c r="GQ8" s="4"/>
+      <c r="GR8" s="4"/>
+      <c r="GS8" s="4"/>
+      <c r="GT8" s="4"/>
+      <c r="GU8" s="4"/>
+      <c r="GV8" s="4"/>
+      <c r="GW8" s="4"/>
+      <c r="GX8" s="4"/>
+      <c r="GY8" s="4"/>
+      <c r="GZ8" s="4"/>
+      <c r="HA8" s="4"/>
+      <c r="HB8" s="4"/>
+      <c r="HC8" s="4"/>
+      <c r="HD8" s="4"/>
+      <c r="HE8" s="4"/>
+      <c r="HF8" s="4"/>
+      <c r="HG8" s="4"/>
+      <c r="HH8" s="4"/>
+      <c r="HI8" s="4"/>
+      <c r="HJ8" s="4"/>
+      <c r="HK8" s="4"/>
+      <c r="HL8" s="4"/>
+      <c r="HM8" s="4"/>
+      <c r="HN8" s="4"/>
+      <c r="HO8" s="4"/>
+      <c r="HP8" s="4"/>
+      <c r="HQ8" s="4"/>
+      <c r="HR8" s="4"/>
+      <c r="HS8" s="4"/>
+      <c r="HT8" s="4"/>
+      <c r="HU8" s="4"/>
+      <c r="HV8" s="4"/>
+      <c r="HW8" s="4"/>
+      <c r="HX8" s="4"/>
+      <c r="HY8" s="4"/>
+      <c r="HZ8" s="4"/>
+      <c r="IA8" s="4"/>
+      <c r="IB8" s="4"/>
+      <c r="IC8" s="4"/>
+      <c r="ID8" s="4"/>
+      <c r="IE8" s="4"/>
+      <c r="IF8" s="4"/>
+      <c r="IG8" s="4"/>
+      <c r="IH8" s="4"/>
+      <c r="II8" s="4"/>
+      <c r="IJ8" s="4"/>
+      <c r="IK8" s="4"/>
+      <c r="IL8" s="4"/>
+      <c r="IM8" s="4"/>
+      <c r="IN8" s="4"/>
+      <c r="IO8" s="4"/>
+      <c r="IP8" s="4"/>
+      <c r="IQ8" s="4"/>
+      <c r="IR8" s="4"/>
+      <c r="IS8" s="4"/>
+      <c r="IT8" s="4"/>
+      <c r="IU8" s="4"/>
+      <c r="IV8" s="4"/>
+      <c r="IW8" s="4"/>
+      <c r="IX8" s="4"/>
+      <c r="IY8" s="4"/>
+      <c r="IZ8" s="4"/>
+      <c r="JA8" s="4"/>
+      <c r="JB8" s="4"/>
+      <c r="JC8" s="4"/>
+      <c r="JD8" s="4"/>
+      <c r="JE8" s="4"/>
+      <c r="JF8" s="4"/>
+      <c r="JG8" s="4"/>
+      <c r="JH8" s="4"/>
+      <c r="JI8" s="4"/>
+      <c r="JJ8" s="4"/>
+      <c r="JK8" s="4"/>
+      <c r="JL8" s="4"/>
+      <c r="JM8" s="4"/>
+      <c r="JN8" s="4"/>
+      <c r="JO8" s="4"/>
+      <c r="JP8" s="4"/>
+      <c r="JQ8" s="4"/>
+      <c r="JR8" s="4"/>
+      <c r="JS8" s="4"/>
+      <c r="JT8" s="4"/>
+      <c r="JU8" s="4"/>
+      <c r="JV8" s="4"/>
+      <c r="JW8" s="4"/>
+      <c r="JX8" s="4"/>
+      <c r="JY8" s="4"/>
+      <c r="JZ8" s="4"/>
+      <c r="KA8" s="4"/>
+      <c r="KB8" s="4"/>
+      <c r="KC8" s="4"/>
+      <c r="KD8" s="4"/>
+      <c r="KE8" s="4"/>
+      <c r="KF8" s="4"/>
+      <c r="KG8" s="4"/>
+      <c r="KH8" s="4"/>
+      <c r="KI8" s="4"/>
+      <c r="KJ8" s="4"/>
+      <c r="KK8" s="4"/>
+      <c r="KL8" s="4"/>
+      <c r="KM8" s="4"/>
+      <c r="KN8" s="4"/>
+      <c r="KO8" s="4"/>
+      <c r="KP8" s="4"/>
+      <c r="KQ8" s="4"/>
+      <c r="KR8" s="4"/>
+      <c r="KS8" s="4"/>
+      <c r="KT8" s="4"/>
+      <c r="KU8" s="4"/>
+      <c r="KV8" s="4"/>
+      <c r="KW8" s="4"/>
+      <c r="KX8" s="4"/>
+      <c r="KY8" s="4"/>
+      <c r="KZ8" s="4"/>
+      <c r="LA8" s="4"/>
+      <c r="LB8" s="4"/>
+      <c r="LC8" s="4"/>
+      <c r="LD8" s="4"/>
+      <c r="LE8" s="4"/>
+    </row>
+    <row r="9" spans="2:317">
+      <c r="B9" s="20"/>
+    </row>
+    <row r="10" spans="2:317">
+      <c r="B10" s="20"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="2:317">
+      <c r="B11" s="20"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="2:317" ht="15" thickBot="1">
+      <c r="B12" s="20"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="2:317">
+      <c r="B13" s="20"/>
+    </row>
+    <row r="14" spans="2:317">
+      <c r="B14" s="20"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="2:317">
+      <c r="B15" s="20"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="2:317" ht="15" thickBot="1">
+      <c r="B16" s="20"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="20"/>
+    </row>
+    <row r="20" spans="2:13" ht="18">
+      <c r="E20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="D23" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="D24" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B25" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:317">
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="2:317" ht="15.75" customHeight="1">
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="BY7" s="7"/>
-      <c r="BZ7" s="7"/>
-      <c r="CA7" s="7"/>
-      <c r="CB7" s="7"/>
-      <c r="CC7" s="7"/>
-      <c r="CD7" s="7"/>
-      <c r="CE7" s="7"/>
-      <c r="CF7" s="7"/>
-      <c r="CG7" s="7"/>
-      <c r="CH7" s="7"/>
-      <c r="CI7" s="7"/>
-      <c r="CJ7" s="7"/>
-      <c r="CK7" s="7"/>
-      <c r="CL7" s="7"/>
-      <c r="CM7" s="7"/>
-      <c r="CN7" s="7"/>
-      <c r="CO7" s="7"/>
-      <c r="CP7" s="7"/>
-      <c r="CQ7" s="7"/>
-      <c r="CR7" s="7"/>
-      <c r="CS7" s="7"/>
-      <c r="CT7" s="7"/>
-      <c r="CU7" s="7"/>
-      <c r="CV7" s="7"/>
-      <c r="CW7" s="7"/>
-      <c r="CX7" s="7"/>
-      <c r="CY7" s="7"/>
-      <c r="CZ7" s="7"/>
-      <c r="DA7" s="7"/>
-      <c r="DB7" s="7"/>
-      <c r="DC7" s="7"/>
-      <c r="DD7" s="7"/>
-      <c r="DE7" s="7"/>
-      <c r="DF7" s="7"/>
-      <c r="DG7" s="7"/>
-      <c r="DH7" s="7"/>
-      <c r="DI7" s="7"/>
-      <c r="DJ7" s="7"/>
-      <c r="DK7" s="7"/>
-      <c r="DL7" s="7"/>
-      <c r="DM7" s="7"/>
-      <c r="DN7" s="7"/>
-      <c r="DO7" s="7"/>
-      <c r="DP7" s="7"/>
-      <c r="DQ7" s="7"/>
-      <c r="DR7" s="7"/>
-      <c r="DS7" s="7"/>
-      <c r="DT7" s="7"/>
-      <c r="DU7" s="7"/>
-      <c r="DV7" s="7"/>
-      <c r="DW7" s="7"/>
-      <c r="DX7" s="7"/>
-      <c r="DY7" s="7"/>
-      <c r="DZ7" s="7"/>
-      <c r="EA7" s="7"/>
-      <c r="EB7" s="7"/>
-      <c r="EC7" s="7"/>
-      <c r="ED7" s="7"/>
-      <c r="EE7" s="7"/>
-      <c r="EF7" s="7"/>
-      <c r="EG7" s="7"/>
-      <c r="EH7" s="7"/>
-      <c r="EI7" s="7"/>
-      <c r="EJ7" s="7"/>
-      <c r="EK7" s="7"/>
-      <c r="EL7" s="7"/>
-      <c r="EM7" s="7"/>
-      <c r="EN7" s="7"/>
-      <c r="EO7" s="7"/>
-      <c r="EP7" s="7"/>
-      <c r="EQ7" s="7"/>
-      <c r="ER7" s="7"/>
-      <c r="ES7" s="7"/>
-      <c r="ET7" s="7"/>
-      <c r="EU7" s="7"/>
-      <c r="EV7" s="7"/>
-      <c r="EW7" s="7"/>
-      <c r="EX7" s="7"/>
-      <c r="EY7" s="7"/>
-      <c r="EZ7" s="7"/>
-      <c r="FA7" s="7"/>
-      <c r="FB7" s="7"/>
-      <c r="FC7" s="7"/>
-      <c r="FD7" s="7"/>
-      <c r="FE7" s="7"/>
-      <c r="FF7" s="7"/>
-      <c r="FG7" s="7"/>
-      <c r="FH7" s="7"/>
-      <c r="FI7" s="7"/>
-      <c r="FJ7" s="7"/>
-      <c r="FK7" s="7"/>
-      <c r="FL7" s="7"/>
-      <c r="FM7" s="7"/>
-      <c r="FN7" s="7"/>
-      <c r="FO7" s="7"/>
-      <c r="FP7" s="7"/>
-      <c r="FQ7" s="7"/>
-      <c r="FR7" s="7"/>
-      <c r="FS7" s="7"/>
-      <c r="FT7" s="7"/>
-      <c r="FU7" s="7"/>
-      <c r="FV7" s="7"/>
-      <c r="FW7" s="7"/>
-      <c r="FX7" s="7"/>
-      <c r="FY7" s="7"/>
-      <c r="FZ7" s="7"/>
-      <c r="GA7" s="7"/>
-      <c r="GB7" s="7"/>
-      <c r="GC7" s="7"/>
-      <c r="GD7" s="7"/>
-      <c r="GE7" s="7"/>
-      <c r="GF7" s="7"/>
-      <c r="GG7" s="7"/>
-      <c r="GH7" s="7"/>
-      <c r="GI7" s="7"/>
-      <c r="GJ7" s="7"/>
-      <c r="GK7" s="7"/>
-      <c r="GL7" s="7"/>
-      <c r="GM7" s="7"/>
-      <c r="GN7" s="7"/>
-      <c r="GO7" s="7"/>
-      <c r="GP7" s="7"/>
-      <c r="GQ7" s="7"/>
-      <c r="GR7" s="7"/>
-      <c r="GS7" s="7"/>
-      <c r="GT7" s="7"/>
-      <c r="GU7" s="7"/>
-      <c r="GV7" s="7"/>
-      <c r="GW7" s="7"/>
-      <c r="GX7" s="7"/>
-      <c r="GY7" s="7"/>
-      <c r="GZ7" s="7"/>
-      <c r="HA7" s="7"/>
-      <c r="HB7" s="7"/>
-      <c r="HC7" s="7"/>
-      <c r="HD7" s="7"/>
-      <c r="HE7" s="7"/>
-      <c r="HF7" s="7"/>
-      <c r="HG7" s="7"/>
-      <c r="HH7" s="7"/>
-      <c r="HI7" s="7"/>
-      <c r="HJ7" s="7"/>
-      <c r="HK7" s="7"/>
-      <c r="HL7" s="7"/>
-      <c r="HM7" s="7"/>
-      <c r="HN7" s="7"/>
-      <c r="HO7" s="7"/>
-      <c r="HP7" s="7"/>
-      <c r="HQ7" s="7"/>
-      <c r="HR7" s="7"/>
-      <c r="HS7" s="7"/>
-      <c r="HT7" s="7"/>
-      <c r="HU7" s="7"/>
-      <c r="HV7" s="7"/>
-      <c r="HW7" s="7"/>
-      <c r="HX7" s="7"/>
-      <c r="HY7" s="7"/>
-      <c r="HZ7" s="7"/>
-      <c r="IA7" s="7"/>
-      <c r="IB7" s="7"/>
-      <c r="IC7" s="7"/>
-      <c r="ID7" s="7"/>
-      <c r="IE7" s="7"/>
-      <c r="IF7" s="7"/>
-      <c r="IG7" s="7"/>
-      <c r="IH7" s="7"/>
-      <c r="II7" s="7"/>
-      <c r="IJ7" s="7"/>
-      <c r="IK7" s="7"/>
-      <c r="IL7" s="7"/>
-      <c r="IM7" s="7"/>
-      <c r="IN7" s="7"/>
-      <c r="IO7" s="7"/>
-      <c r="IP7" s="7"/>
-      <c r="IQ7" s="7"/>
-      <c r="IR7" s="7"/>
-      <c r="IS7" s="7"/>
-      <c r="IT7" s="7"/>
-      <c r="IU7" s="7"/>
-      <c r="IV7" s="7"/>
-      <c r="IW7" s="7"/>
-      <c r="IX7" s="7"/>
-      <c r="IY7" s="7"/>
-      <c r="IZ7" s="7"/>
-      <c r="JA7" s="7"/>
-      <c r="JB7" s="7"/>
-      <c r="JC7" s="7"/>
-      <c r="JD7" s="7"/>
-      <c r="JE7" s="7"/>
-      <c r="JF7" s="7"/>
-      <c r="JG7" s="7"/>
-      <c r="JH7" s="7"/>
-      <c r="JI7" s="7"/>
-      <c r="JJ7" s="7"/>
-      <c r="JK7" s="7"/>
-      <c r="JL7" s="7"/>
-      <c r="JM7" s="7"/>
-      <c r="JN7" s="7"/>
-      <c r="JO7" s="7"/>
-      <c r="JP7" s="7"/>
-      <c r="JQ7" s="7"/>
-      <c r="JR7" s="7"/>
-      <c r="JS7" s="7"/>
-      <c r="JT7" s="7"/>
-      <c r="JU7" s="7"/>
-      <c r="JV7" s="7"/>
-      <c r="JW7" s="7"/>
-      <c r="JX7" s="7"/>
-      <c r="JY7" s="7"/>
-      <c r="JZ7" s="7"/>
-      <c r="KA7" s="7"/>
-      <c r="KB7" s="7"/>
-      <c r="KC7" s="7"/>
-      <c r="KD7" s="7"/>
-      <c r="KE7" s="7"/>
-      <c r="KF7" s="7"/>
-      <c r="KG7" s="7"/>
-      <c r="KH7" s="7"/>
-      <c r="KI7" s="7"/>
-      <c r="KJ7" s="7"/>
-      <c r="KK7" s="7"/>
-      <c r="KL7" s="7"/>
-      <c r="KM7" s="7"/>
-      <c r="KN7" s="7"/>
-      <c r="KO7" s="7"/>
-      <c r="KP7" s="7"/>
-      <c r="KQ7" s="7"/>
-      <c r="KR7" s="7"/>
-      <c r="KS7" s="7"/>
-      <c r="KT7" s="7"/>
-      <c r="KU7" s="7"/>
-      <c r="KV7" s="7"/>
-      <c r="KW7" s="7"/>
-      <c r="KX7" s="7"/>
-      <c r="KY7" s="7"/>
-      <c r="KZ7" s="7"/>
-      <c r="LA7" s="7"/>
-      <c r="LB7" s="7"/>
-      <c r="LC7" s="7"/>
-      <c r="LD7" s="7"/>
-      <c r="LE7" s="7"/>
-    </row>
-    <row r="8" spans="2:317" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B8" s="4"/>
-      <c r="D8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" s="20"/>
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="11">
         <v>1</v>
       </c>
-      <c r="F8" s="8">
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27" s="20"/>
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="11">
         <v>1</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="BY8" s="8"/>
-      <c r="BZ8" s="8"/>
-      <c r="CA8" s="8"/>
-      <c r="CB8" s="8"/>
-      <c r="CC8" s="8"/>
-      <c r="CD8" s="8"/>
-      <c r="CE8" s="8"/>
-      <c r="CF8" s="8"/>
-      <c r="CG8" s="8"/>
-      <c r="CH8" s="8"/>
-      <c r="CI8" s="8"/>
-      <c r="CJ8" s="8"/>
-      <c r="CK8" s="8"/>
-      <c r="CL8" s="8"/>
-      <c r="CM8" s="8"/>
-      <c r="CN8" s="8"/>
-      <c r="CO8" s="8"/>
-      <c r="CP8" s="8"/>
-      <c r="CQ8" s="8"/>
-      <c r="CR8" s="8"/>
-      <c r="CS8" s="8"/>
-      <c r="CT8" s="8"/>
-      <c r="CU8" s="8"/>
-      <c r="CV8" s="8"/>
-      <c r="CW8" s="8"/>
-      <c r="CX8" s="8"/>
-      <c r="CY8" s="8"/>
-      <c r="CZ8" s="8"/>
-      <c r="DA8" s="8"/>
-      <c r="DB8" s="8"/>
-      <c r="DC8" s="8"/>
-      <c r="DD8" s="8"/>
-      <c r="DE8" s="8"/>
-      <c r="DF8" s="8"/>
-      <c r="DG8" s="8"/>
-      <c r="DH8" s="8"/>
-      <c r="DI8" s="8"/>
-      <c r="DJ8" s="8"/>
-      <c r="DK8" s="8"/>
-      <c r="DL8" s="8"/>
-      <c r="DM8" s="8"/>
-      <c r="DN8" s="8"/>
-      <c r="DO8" s="8"/>
-      <c r="DP8" s="8"/>
-      <c r="DQ8" s="8"/>
-      <c r="DR8" s="8"/>
-      <c r="DS8" s="8"/>
-      <c r="DT8" s="8"/>
-      <c r="DU8" s="8"/>
-      <c r="DV8" s="8"/>
-      <c r="DW8" s="8"/>
-      <c r="DX8" s="8"/>
-      <c r="DY8" s="8"/>
-      <c r="DZ8" s="8"/>
-      <c r="EA8" s="8"/>
-      <c r="EB8" s="8"/>
-      <c r="EC8" s="8"/>
-      <c r="ED8" s="8"/>
-      <c r="EE8" s="8"/>
-      <c r="EF8" s="8"/>
-      <c r="EG8" s="8"/>
-      <c r="EH8" s="8"/>
-      <c r="EI8" s="8"/>
-      <c r="EJ8" s="8"/>
-      <c r="EK8" s="8"/>
-      <c r="EL8" s="8"/>
-      <c r="EM8" s="8"/>
-      <c r="EN8" s="8"/>
-      <c r="EO8" s="8"/>
-      <c r="EP8" s="8"/>
-      <c r="EQ8" s="8"/>
-      <c r="ER8" s="8"/>
-      <c r="ES8" s="8"/>
-      <c r="ET8" s="8"/>
-      <c r="EU8" s="8"/>
-      <c r="EV8" s="8"/>
-      <c r="EW8" s="8"/>
-      <c r="EX8" s="8"/>
-      <c r="EY8" s="8"/>
-      <c r="EZ8" s="8"/>
-      <c r="FA8" s="8"/>
-      <c r="FB8" s="8"/>
-      <c r="FC8" s="8"/>
-      <c r="FD8" s="8"/>
-      <c r="FE8" s="8"/>
-      <c r="FF8" s="8"/>
-      <c r="FG8" s="8"/>
-      <c r="FH8" s="8"/>
-      <c r="FI8" s="8"/>
-      <c r="FJ8" s="8"/>
-      <c r="FK8" s="8"/>
-      <c r="FL8" s="8"/>
-      <c r="FM8" s="8"/>
-      <c r="FN8" s="8"/>
-      <c r="FO8" s="8"/>
-      <c r="FP8" s="8"/>
-      <c r="FQ8" s="8"/>
-      <c r="FR8" s="8"/>
-      <c r="FS8" s="8"/>
-      <c r="FT8" s="8"/>
-      <c r="FU8" s="8"/>
-      <c r="FV8" s="8"/>
-      <c r="FW8" s="8"/>
-      <c r="FX8" s="8"/>
-      <c r="FY8" s="8"/>
-      <c r="FZ8" s="8"/>
-      <c r="GA8" s="8"/>
-      <c r="GB8" s="8"/>
-      <c r="GC8" s="8"/>
-      <c r="GD8" s="8"/>
-      <c r="GE8" s="8"/>
-      <c r="GF8" s="8"/>
-      <c r="GG8" s="8"/>
-      <c r="GH8" s="8"/>
-      <c r="GI8" s="8"/>
-      <c r="GJ8" s="8"/>
-      <c r="GK8" s="8"/>
-      <c r="GL8" s="8"/>
-      <c r="GM8" s="8"/>
-      <c r="GN8" s="8"/>
-      <c r="GO8" s="8"/>
-      <c r="GP8" s="8"/>
-      <c r="GQ8" s="8"/>
-      <c r="GR8" s="8"/>
-      <c r="GS8" s="8"/>
-      <c r="GT8" s="8"/>
-      <c r="GU8" s="8"/>
-      <c r="GV8" s="8"/>
-      <c r="GW8" s="8"/>
-      <c r="GX8" s="8"/>
-      <c r="GY8" s="8"/>
-      <c r="GZ8" s="8"/>
-      <c r="HA8" s="8"/>
-      <c r="HB8" s="8"/>
-      <c r="HC8" s="8"/>
-      <c r="HD8" s="8"/>
-      <c r="HE8" s="8"/>
-      <c r="HF8" s="8"/>
-      <c r="HG8" s="8"/>
-      <c r="HH8" s="8"/>
-      <c r="HI8" s="8"/>
-      <c r="HJ8" s="8"/>
-      <c r="HK8" s="8"/>
-      <c r="HL8" s="8"/>
-      <c r="HM8" s="8"/>
-      <c r="HN8" s="8"/>
-      <c r="HO8" s="8"/>
-      <c r="HP8" s="8"/>
-      <c r="HQ8" s="8"/>
-      <c r="HR8" s="8"/>
-      <c r="HS8" s="8"/>
-      <c r="HT8" s="8"/>
-      <c r="HU8" s="8"/>
-      <c r="HV8" s="8"/>
-      <c r="HW8" s="8"/>
-      <c r="HX8" s="8"/>
-      <c r="HY8" s="8"/>
-      <c r="HZ8" s="8"/>
-      <c r="IA8" s="8"/>
-      <c r="IB8" s="8"/>
-      <c r="IC8" s="8"/>
-      <c r="ID8" s="8"/>
-      <c r="IE8" s="8"/>
-      <c r="IF8" s="8"/>
-      <c r="IG8" s="8"/>
-      <c r="IH8" s="8"/>
-      <c r="II8" s="8"/>
-      <c r="IJ8" s="8"/>
-      <c r="IK8" s="8"/>
-      <c r="IL8" s="8"/>
-      <c r="IM8" s="8"/>
-      <c r="IN8" s="8"/>
-      <c r="IO8" s="8"/>
-      <c r="IP8" s="8"/>
-      <c r="IQ8" s="8"/>
-      <c r="IR8" s="8"/>
-      <c r="IS8" s="8"/>
-      <c r="IT8" s="8"/>
-      <c r="IU8" s="8"/>
-      <c r="IV8" s="8"/>
-      <c r="IW8" s="8"/>
-      <c r="IX8" s="8"/>
-      <c r="IY8" s="8"/>
-      <c r="IZ8" s="8"/>
-      <c r="JA8" s="8"/>
-      <c r="JB8" s="8"/>
-      <c r="JC8" s="8"/>
-      <c r="JD8" s="8"/>
-      <c r="JE8" s="8"/>
-      <c r="JF8" s="8"/>
-      <c r="JG8" s="8"/>
-      <c r="JH8" s="8"/>
-      <c r="JI8" s="8"/>
-      <c r="JJ8" s="8"/>
-      <c r="JK8" s="8"/>
-      <c r="JL8" s="8"/>
-      <c r="JM8" s="8"/>
-      <c r="JN8" s="8"/>
-      <c r="JO8" s="8"/>
-      <c r="JP8" s="8"/>
-      <c r="JQ8" s="8"/>
-      <c r="JR8" s="8"/>
-      <c r="JS8" s="8"/>
-      <c r="JT8" s="8"/>
-      <c r="JU8" s="8"/>
-      <c r="JV8" s="8"/>
-      <c r="JW8" s="8"/>
-      <c r="JX8" s="8"/>
-      <c r="JY8" s="8"/>
-      <c r="JZ8" s="8"/>
-      <c r="KA8" s="8"/>
-      <c r="KB8" s="8"/>
-      <c r="KC8" s="8"/>
-      <c r="KD8" s="8"/>
-      <c r="KE8" s="8"/>
-      <c r="KF8" s="8"/>
-      <c r="KG8" s="8"/>
-      <c r="KH8" s="8"/>
-      <c r="KI8" s="8"/>
-      <c r="KJ8" s="8"/>
-      <c r="KK8" s="8"/>
-      <c r="KL8" s="8"/>
-      <c r="KM8" s="8"/>
-      <c r="KN8" s="8"/>
-      <c r="KO8" s="8"/>
-      <c r="KP8" s="8"/>
-      <c r="KQ8" s="8"/>
-      <c r="KR8" s="8"/>
-      <c r="KS8" s="8"/>
-      <c r="KT8" s="8"/>
-      <c r="KU8" s="8"/>
-      <c r="KV8" s="8"/>
-      <c r="KW8" s="8"/>
-      <c r="KX8" s="8"/>
-      <c r="KY8" s="8"/>
-      <c r="KZ8" s="8"/>
-      <c r="LA8" s="8"/>
-      <c r="LB8" s="8"/>
-      <c r="LC8" s="8"/>
-      <c r="LD8" s="8"/>
-      <c r="LE8" s="8"/>
-    </row>
-    <row r="9" spans="2:317">
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="2:317">
-      <c r="B10" s="4"/>
-      <c r="D10" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:317">
-      <c r="B11" s="4"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="2:317" ht="15" thickBot="1">
-      <c r="B12" s="4"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="2:317">
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="2:317">
-      <c r="B14" s="4"/>
-      <c r="D14" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:317">
-      <c r="B15" s="4"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="2:317" ht="15" thickBot="1">
-      <c r="B16" s="4"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="2:13">
-      <c r="B17" s="4"/>
-    </row>
-    <row r="20" spans="2:13" ht="18">
-      <c r="E20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-    </row>
-    <row r="23" spans="2:13">
-      <c r="D23" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13">
-      <c r="D24" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="2:13">
-      <c r="B26" s="4"/>
-      <c r="D26" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13">
-      <c r="B27" s="4"/>
-      <c r="D27" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="15">
-        <v>1</v>
-      </c>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="4"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="15"/>
+      <c r="B28" s="20"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="4"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="15"/>
+      <c r="B29" s="20"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="4"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="17"/>
+      <c r="B30" s="20"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="13"/>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="4"/>
+      <c r="B31" s="20"/>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="12"/>
+      <c r="B32" s="8"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="12"/>
+      <c r="B33" s="8"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="12"/>
+      <c r="B34" s="8"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="12"/>
+      <c r="B35" s="8"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="12"/>
+      <c r="B36" s="8"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="12"/>
+      <c r="B37" s="8"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="12"/>
+      <c r="B38" s="8"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="12"/>
+      <c r="B39" s="8"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="12"/>
+      <c r="B40" s="8"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="12"/>
+      <c r="B41" s="8"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="12"/>
+      <c r="B42" s="8"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="12"/>
+      <c r="B43" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="D2:I3"/>
     <mergeCell ref="J20:M20"/>
-    <mergeCell ref="E20:I20"/>
     <mergeCell ref="B7:B17"/>
     <mergeCell ref="B25:B31"/>
+    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2207,49 +2224,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC22F72-09D1-44A6-AE5D-D3A59CDC710A}">
-  <dimension ref="C1:E7"/>
+  <dimension ref="C1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="3:5">
-      <c r="C1" t="s">
+    <row r="1" spans="3:7" ht="18">
+      <c r="C1" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="3:7" ht="18">
+      <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="3:5">
-      <c r="C3" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5">
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5">
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1">
+    <row r="5" spans="3:7">
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7">
+      <c r="C6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7">
+      <c r="C7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="G7" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7">
+      <c r="C8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
         <v>1</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2259,15 +2287,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008DFBF53F0ACC204A81AA471894AB8BEB" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b259ffa322c1c0eae8def1f76813935b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8e9dc71b-f39d-4d74-9db7-6b9af8a8dfe0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3f17c7eff3df56e3ae074ef677741bc" ns2:_="">
-    <xsd:import namespace="8e9dc71b-f39d-4d74-9db7-6b9af8a8dfe0"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100594B9D139668E742805735A3EA21C043" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ee5283bd4de284755c00ee06b3de838c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3355bc15-3803-43c6-99c3-19930f83c70c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="641c50331f870266fddd248c345d606f" ns2:_="">
+    <xsd:import namespace="3355bc15-3803-43c6-99c3-19930f83c70c"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -2285,7 +2307,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8e9dc71b-f39d-4d74-9db7-6b9af8a8dfe0" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3355bc15-3803-43c6-99c3-19930f83c70c" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -2408,6 +2430,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2418,39 +2446,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E1B31D9-7BE0-4AFC-A143-04EF0C9C1A08}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="b8f6db99-b5ee-4a02-8cdb-f0047cef9f7b"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
-    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CDF09EC-D6F5-4B2D-B163-9027D7E6EEE1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1F7C79D-8224-4165-A334-D81FC17EDBF7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E1B31D9-7BE0-4AFC-A143-04EF0C9C1A08}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8e9dc71b-f39d-4d74-9db7-6b9af8a8dfe0"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/SuppXLS/Trades/ScenTrade__Trade_Links.xlsx
+++ b/SuppXLS/Trades/ScenTrade__Trade_Links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://institutesustainableenergy.sharepoint.com/sites/TIMES_Veda/Shared Documents/General/Demo model/SuppXLS/Trades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{EB0499FD-0425-4F3A-A816-E9F5792D8089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2B4C150-215D-419D-86FE-AC54D91CC88A}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{EB0499FD-0425-4F3A-A816-E9F5792D8089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDD025B9-06D2-4D71-9646-F42D926263EB}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="3264" windowWidth="34320" windowHeight="15288" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9960" yWindow="2460" windowWidth="34320" windowHeight="15288" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uni" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>\I:</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>Regions REG_A and REG_B export ELEC_HV to REG_B</t>
+  </si>
+  <si>
+    <t>~TradeLinks</t>
+  </si>
+  <si>
+    <t>ASDF~TradeLinks</t>
   </si>
 </sst>
 </file>
@@ -1489,7 +1495,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:LE43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1536,7 +1544,7 @@
     </row>
     <row r="6" spans="2:317">
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:317" ht="15.75" customHeight="1">
@@ -2227,7 +2235,7 @@
   <dimension ref="C1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2244,7 +2252,7 @@
     </row>
     <row r="5" spans="3:7">
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="3:7">
@@ -2287,6 +2295,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100594B9D139668E742805735A3EA21C043" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ee5283bd4de284755c00ee06b3de838c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3355bc15-3803-43c6-99c3-19930f83c70c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="641c50331f870266fddd248c345d606f" ns2:_="">
     <xsd:import namespace="3355bc15-3803-43c6-99c3-19930f83c70c"/>
@@ -2430,23 +2453,12 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CDF09EC-D6F5-4B2D-B163-9027D7E6EEE1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A1BF275-A97B-4968-8865-63871CAA14A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2465,9 +2477,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A1BF275-A97B-4968-8865-63871CAA14A1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CDF09EC-D6F5-4B2D-B163-9027D7E6EEE1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3355bc15-3803-43c6-99c3-19930f83c70c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>